--- a/KiCad/ESP32DUALDIAL_BOM.xlsx
+++ b/KiCad/ESP32DUALDIAL_BOM.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="93">
   <si>
     <t xml:space="preserve">Comment</t>
   </si>
@@ -82,7 +82,7 @@
     <t xml:space="preserve">ESP-WROOM-32</t>
   </si>
   <si>
-    <t xml:space="preserve">C701342</t>
+    <t xml:space="preserve">C701343</t>
   </si>
   <si>
     <t xml:space="preserve">v</t>
@@ -91,7 +91,7 @@
     <t xml:space="preserve">C</t>
   </si>
   <si>
-    <t xml:space="preserve">C1, C2, C4, C5, C7, C8, C9, C12</t>
+    <t xml:space="preserve">C1, C2, C4, C5, C7, C8, C9, C12,C15,C16,C17</t>
   </si>
   <si>
     <t xml:space="preserve">0.1uF CC0603KRX7R9BB104</t>
@@ -256,7 +256,7 @@
     <t xml:space="preserve">2200p</t>
   </si>
   <si>
-    <t xml:space="preserve">c389721</t>
+    <t xml:space="preserve">C389721</t>
   </si>
   <si>
     <t xml:space="preserve">R23, R24</t>
@@ -265,10 +265,79 @@
     <t xml:space="preserve">1MΩ</t>
   </si>
   <si>
-    <t xml:space="preserve">C1373811</t>
+    <t xml:space="preserve">C714630</t>
   </si>
   <si>
     <t xml:space="preserve">V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buzzer1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BZ1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TMB12A03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C96079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47uF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C2943984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">220uF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C698142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PINSOCKET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14PIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C9900060112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IRM-15-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PS1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12V Power</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C6394169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NNG1D-1/032F-22 2Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U5,U6,U7,U8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C9900059825</t>
   </si>
 </sst>
 </file>
@@ -278,7 +347,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Noto Sans CJK JP"/>
@@ -334,6 +403,13 @@
       <family val="1"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Noto Sans CJK JP"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -384,7 +460,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -406,6 +482,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -486,13 +566,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+      <selection pane="topLeft" activeCell="E24" activeCellId="0" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="50.76"/>
@@ -800,6 +880,9 @@
       <c r="D20" s="5" t="s">
         <v>65</v>
       </c>
+      <c r="E20" s="0" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
@@ -811,14 +894,101 @@
       <c r="C21" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="0" t="s">
         <v>68</v>
       </c>
       <c r="E21" s="0" t="s">
         <v>69</v>
       </c>
     </row>
+    <row r="22" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C22" r:id="rId1" display="TMB12A03"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
